--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>21.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +642,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.80</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +680,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>34.43</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -705,4 +706,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1142,4 +1143,780 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1879</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1919,4 +1920,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1928,7 +1929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,17 +1940,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1959,14 +1980,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.48</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1975,14 +2018,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.41</v>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1991,14 +2056,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2007,13 +2094,643 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2629,7 +2630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2640,17 +2641,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2660,14 +2681,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.62</v>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2676,14 +2719,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.48</v>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2692,14 +2757,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>4.41</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="5">
@@ -2708,14 +2879,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="6">
@@ -2724,13 +2895,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2800,7 +2801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,17 +2812,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2831,14 +2852,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2847,14 +2890,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.62</v>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2863,14 +2928,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8.48</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="5">
@@ -2879,14 +3050,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>4.41</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="6">
@@ -2895,14 +3066,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="7">
@@ -2911,13 +3082,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>8.48</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>4.41</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012358</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>74.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0682</t>
+          <t>0.2821</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0436</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012359</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -826,36 +919,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000913</t>
+          <t>012358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银医疗保健主题股票</t>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6089</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -864,36 +957,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012358</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.0436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -912,26 +1005,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -940,6 +1033,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2415,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2851,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2983,7 +3246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688617-惠泰医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>8.48</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>4.41</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,7 +633,1941 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0872</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015880</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015881</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012111</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012112</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华安颐混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,176 +2806,6 @@
       </c>
       <c r="H6" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012358</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001294</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新华战略新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012359</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1089,36 +2870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000913</t>
+          <t>012358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银医疗保健主题股票</t>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6089</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1127,36 +2908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012358</t>
+          <t>001294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+          <t>新华战略新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0676</t>
+          <t>0.0436</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1175,26 +2956,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1203,6 +2984,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +3853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2678,7 +4629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3114,7 +5065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3244,134 +5195,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001358</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007575</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>